--- a/SEVA_Plasmids/V1/Corrupted_SEVA_Plasmid_Dataset_V1/JX560339/JX560339_mutations.xlsx
+++ b/SEVA_Plasmids/V1/Corrupted_SEVA_Plasmid_Dataset_V1/JX560339/JX560339_mutations.xlsx
@@ -534,7 +534,7 @@
         <v>0</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>45438.89310387227</v>
+        <v>45441.8333716585</v>
       </c>
     </row>
     <row r="3">
@@ -545,7 +545,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>['1431_1433insca']</t>
+          <t>['1409_1543insgaacgcagcaggcgccgtgcaccgactaggaaatatatcctacattcggcagaaaaacttaactgaaggggctcgcatacaaactgtgctaacaaggcattcctacgacgagaccctttattggaagggtgtct', '1483_1594insgagctaatcaccccccgaatttggagcgaaaaccgtatgtagcactcacttaagatccgaccgacagggggtgatgtttgattggctccccaactattggcgagggaccaa', '1333_1419insccctcttaccgacacattcaatgcgagtcgcataacccccagaggacgtgaaggtcattaccgaattcacgccgttcgccttgggt', '1512_1661inscgcttgtggagtgcacttaattccatctaggtctgacgagccggtttttcgctcgcggggcccaacagagcacacggatatagtacgatcaagtcgtaggttgctacttagtgttcaaatgaagatacggctcaccggcgtttcagtac', '1462_1612insttggccaccaccaccccgccgttgtaataacgtggcccagactcgtccggaagcaggatgtgacacctagtagcgatacatggcctccttggttggatcagtatcactagggatagtgacgttcaactctatactgcgttgcgtattggg']</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -568,16 +568,16 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J3" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>45438.89310389542</v>
+        <v>45441.8333716932</v>
       </c>
     </row>
     <row r="4">
@@ -593,7 +593,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['231g&gt;t']</t>
+          <t>['246_312del', '202_294insaggaattttgagccacgaccagcttcagttgagcgcagccacatggaaatagaccctgccggaaggtatgcaatcctctatatctctgaagt', '180_194del', '181_204insaaccccgtgagtgtaagaaagtc', '162_218insgagggtcttgggggatgagtgcttaccccggccagataaggcattgagtttctggt']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -611,16 +611,16 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J4" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>45438.89310392435</v>
+        <v>45441.83337171636</v>
       </c>
     </row>
     <row r="5">
@@ -641,7 +641,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['3607_3609del']</t>
+          <t>['3612_3733del', '3539_3680insacgtaagacgcgctgagctctcaatatgcatccccggctccgtggttgcgttgtgcgaacgcataaaaaataagtgtggcacgtcaattttgttcaaggtaagcgacttgtcacatctgcttacccccatgagagcaatgg', '3547_3609del', '3570_3705del', '3534_3574insaaatgtctcgacactgctatcgacagcctaacagtgtcat']</t>
         </is>
       </c>
       <c r="E5" t="b">
@@ -654,16 +654,16 @@
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J5" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>45438.89310405665</v>
+        <v>45441.83337174529</v>
       </c>
     </row>
     <row r="6">
@@ -674,12 +674,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>['1323_1325insgc']</t>
+          <t>['1406_1546del', '1319_1370del', '1519_1561insgatggagttacagtccatcggacccaggcatggggatgacaa', '1366_1404insaagcttttcgataagtgatcctgcaactgattggacta', '1500_1519del']</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>['253_255del']</t>
+          <t>['218_316del', '217_303insaacgccggtaaataggctctgcgactactatcccctcctccatccgctaattccgctcaaaaagtagtactgcaaacacctgtatt', '223_259insgctagggcgctacctaaacggccagtctttacgagg', '199_320inscgcagtgatcattttcttatagctatcaaatttgatcttcgctattgtaaaatcgccgcgttgctccaacgagtgtgggccatcccgacagcaccgccaggggggctggtcgcgcgccata', '178_244del']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -697,16 +697,16 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J6" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>45438.89310407981</v>
+        <v>45441.83337176844</v>
       </c>
     </row>
     <row r="7">
@@ -717,7 +717,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>['1336_1337insa']</t>
+          <t>['1451_1571del', '1302_1437inscatgatctcgttcatagtcgtctgttcgtcggaatccagagtcagcccagtgtagcttgtcttagtatccgtgacattaaggcccattgatgaaagactaattaggccgcaatgtgtgacctaagttacataagg', '1382_1465del', '1469_1600del', '1368_1514del']</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -727,7 +727,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>['3536_3539del']</t>
+          <t>['3528_3672del', '3581_3615inscctcgacctggtcgtggccgacatagtcccgggt', '3577_3718del', '3594_3680inscgcgactcagagttgctgcgcgagtacaggttaaccttgaaaccggccgcccggtctaaccagcgaatgagaagaaggttctgtat', '3584_3703del']</t>
         </is>
       </c>
       <c r="E7" t="b">
@@ -740,16 +740,16 @@
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J7" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>45438.89310409717</v>
+        <v>45441.83337179159</v>
       </c>
     </row>
     <row r="8">
@@ -765,12 +765,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>['177_177del']</t>
+          <t>['214_328insataatcgacgtagtatccttgcgttgtatacgatcgcgtcacttgcagcgggccggggagcggtccagccgttgaaggcacgtgttctgtcaaggacgaaaatgacagggatgg', '240_351del', '186_274insctggagcaactatcgagcttactatactgactaaacgttatggattgcagttacgaccgttcccaggagataggataatgtgatcccc', '188_247insagcaccgtacctcgtagacactggacaggagtgcgtcgcaaaggtctgtgtcttgtggg', '241_344insagcctaggccttgggaggtcatgtgccgcgcagcgaaccattcctccacgaagggcatcctcgtcagaattaaacggcgtacttccgaaaggggattcagcct']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>['3560_3562insta']</t>
+          <t>['3615_3680del', '3532_3655insgaaaattcaaacatactgtatggtgataactatccataacggctgtttaattccgccgtagttcttccgatatctaaggtcccatattatgtgtaatgacctcgctgcacaggaccatcatta', '3525_3549insttggcgcgcgaccgtacgagctca', '3570_3603insaaccaactacactggagtgccactagattggtt', '3538_3595instcacatgtcgcgctacgccctgtgccttttagccaaactgcctcggagacagactct']</t>
         </is>
       </c>
       <c r="E8" t="b">
@@ -783,16 +783,16 @@
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J8" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>45438.8931041203</v>
+        <v>45441.83337181473</v>
       </c>
     </row>
     <row r="9">
@@ -803,17 +803,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>['1298_1301inscaa']</t>
+          <t>['1402_1511del', '1445_1564inscgggaggacaatctatgggactagctggggtccctagttgttttgggtgctagtacgacggcattgaacataaacgcaaactcgtattgtgtggtccgaagggatgtccgcataattcc', '1314_1463del', '1422_1436insaggagtggctaaat', '1355_1382inscgacgtagagatacaacagtgacttag']</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>['199g&gt;c']</t>
+          <t>['166_190del', '182_305del', '219_252insgattttacttcttacagctacgcctgtcaggtt', '223_307insggttaactagacaagaacttgcgtgaactttataggaatgacgatcgcgtgccgcggtatctttcgaaggagagcacacgtgtt', '161_251del']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>['3581_3581del']</t>
+          <t>['3564_3608del', '3625_3725insatcgggatggagaggcgcttttgccccgataactgtttaggtcagtcgatgatgtcaaactgcactctatgtagagcgttcatacaggtgggactgggag', '3570_3627del', '3567_3626del', '3591_3704inscgcttctgttcattactagtggggagtcaaaacagaagacctcgagtagcgaatagctactaaccgatagcggcggagatgtatgacggaacctccgctttggcgtcatgcgg']</t>
         </is>
       </c>
       <c r="E9" t="b">
@@ -826,16 +826,16 @@
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J9" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>45438.89310414346</v>
+        <v>45441.83337183789</v>
       </c>
     </row>
   </sheetData>
